--- a/biology/Zoologie/Hexaplex_cichoreum/Hexaplex_cichoreum.xlsx
+++ b/biology/Zoologie/Hexaplex_cichoreum/Hexaplex_cichoreum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Murex endive
 Hexaplex cichoreum, le murex endive, est une espèce de mollusques gastéropodes marins appartenant à la famille des Muricidae. Espèce non dangereuse et non inscrite sur la liste des espèces menacées (IUNC).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquille oblongue, fusiforme, à spire courte et conique, avec huit à neuf tours très convexes, avec six varices longitudinales ; la base de la coquille est ouverte par un ombilic assez grand et profond ; il est circonscrit en dehors par un bord découpé en cinq épines fort longues, creusées en gouttière. La coloration de cette espèce est remarquable : elle est ordinairement blanche, quelquefois brunâtre, et les varices, ainsi que leurs digitations, sont d'un brun-noir très intense. Toute la surface extérieure est sillonnée assez régulièrement. Les sillons sont presque égaux.
 Longueur maximale : 15 cm.
@@ -544,9 +558,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Murex endivia (Lamarck)[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Murex endivia (Lamarck).</t>
         </is>
       </c>
     </row>
@@ -574,12 +590,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>murex endive
-pourpre impériale[2],[Information douteuse]
+pourpre impériale,[Information douteuse]
 rocher endive
-tête d'endive[3]</t>
+tête d'endive</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce tropicale, de la zone sublittorale de l'océan Pacifique (ouest et centre) et du sud de la mer de Chine méridionale.
 </t>
